--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="156">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -400,10 +400,25 @@
     <t xml:space="preserve">Assortment Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Scored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
     <t xml:space="preserve">Innovations</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any</t>
+  </si>
+  <si>
     <t xml:space="preserve">Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">POPs</t>
@@ -507,7 +522,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -592,12 +607,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -702,7 +711,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -799,11 +808,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,13 +909,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="74.4493927125506"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="75.0890688259109"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2332,14 +2337,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2348,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,10 +2388,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2415,10 +2419,10 @@
         <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>68</v>
@@ -2448,9 +2452,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2460,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,7 +2532,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,7 +2546,7 @@
         <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2560,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2574,7 @@
         <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2638,10 +2642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2650,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>96</v>
@@ -2664,13 +2668,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2702,10 +2706,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -2732,7 +2736,7 @@
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B3" s="22" t="n">
         <v>1</v>
@@ -2770,10 +2774,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2789,13 +2793,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -2810,16 +2814,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -2833,19 +2837,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -2858,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -2901,15 +2905,15 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2919,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2935,13 +2939,13 @@
       <c r="B2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="25"/>
+        <v>146</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
@@ -2950,11 +2954,11 @@
       <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>142</v>
+      <c r="C3" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2965,10 +2969,10 @@
         <v>106</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2979,10 +2983,10 @@
         <v>106</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3044,7 +3048,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3058,7 +3062,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3072,7 +3076,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3086,7 +3090,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3113,8 +3117,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3123,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,10 +3199,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,12 +3210,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
@@ -3219,7 +3223,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3227,7 +3231,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,11 +3263,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3334,11 +3338,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3485,9 +3489,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3538,9 +3542,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3601,57 +3605,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U6" activeCellId="0" sqref="U6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3678,8 +3708,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3688,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,7 +3753,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3741,7 +3771,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3815,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>112</v>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="154">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">Display by Location</t>
   </si>
   <si>
-    <t xml:space="preserve">POP Seasonal Programs </t>
+    <t xml:space="preserve">POP Seasonal Programs</t>
   </si>
   <si>
     <t xml:space="preserve">Session, POSM</t>
@@ -349,10 +349,10 @@
 Facings &gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">Numerator Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Value 1</t>
+    <t xml:space="preserve">Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 1</t>
   </si>
   <si>
     <t xml:space="preserve">Edges</t>
@@ -437,12 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 1</t>
   </si>
   <si>
     <t xml:space="preserve">Iterative</t>
@@ -903,19 +897,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2343,8 +2337,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2388,9 +2382,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2452,9 +2446,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2464,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2526,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,7 +2540,7 @@
         <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2554,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2568,7 @@
         <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2642,10 +2636,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2654,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>96</v>
@@ -2668,13 +2662,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2706,10 +2700,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -2736,7 +2730,7 @@
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="22" t="n">
         <v>1</v>
@@ -2774,10 +2768,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2793,13 +2787,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="D5" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -2814,16 +2808,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="D6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -2837,19 +2831,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="D7" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -2862,22 +2856,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="D8" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -2906,14 +2900,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2923,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2943,7 +2937,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2955,10 +2949,10 @@
         <v>106</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2969,10 +2963,10 @@
         <v>106</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2983,10 +2977,10 @@
         <v>106</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3048,7 +3042,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3062,7 +3056,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3076,7 +3070,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3090,7 +3084,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3117,8 +3111,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3127,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,10 +3193,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,12 +3204,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
@@ -3223,7 +3217,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3231,7 +3225,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,11 +3257,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3333,20 +3327,20 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3489,9 +3483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3542,9 +3536,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3608,13 +3602,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3708,8 +3702,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3753,7 +3747,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="156">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -200,7 +200,13 @@
     <t xml:space="preserve">Distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">assortment_group_fk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Display by Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_fk</t>
   </si>
   <si>
     <t xml:space="preserve">POP Seasonal Programs</t>
@@ -516,7 +522,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -552,6 +558,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -700,12 +712,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,6 +770,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -766,15 +786,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -782,23 +802,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,19 +917,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="77.1255060728745"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1471,11 +1491,11 @@
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
+      <c r="H19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>18</v>
@@ -1486,7 +1506,7 @@
     </row>
     <row r="20" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>52</v>
@@ -1502,22 +1522,26 @@
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="H20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>52</v>
@@ -1528,7 +1552,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
@@ -1545,18 +1569,18 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1577,10 +1601,10 @@
     </row>
     <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -1608,10 +1632,10 @@
     </row>
     <row r="24" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -1637,16 +1661,16 @@
     </row>
     <row r="25" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="10"/>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>16</v>
@@ -1670,15 +1694,15 @@
     </row>
     <row r="26" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>25</v>
@@ -1687,13 +1711,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1701,10 +1725,10 @@
     </row>
     <row r="27" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
@@ -1728,10 +1752,10 @@
     </row>
     <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
@@ -1755,10 +1779,10 @@
     </row>
     <row r="29" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -1782,10 +1806,10 @@
     </row>
     <row r="30" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
@@ -1809,10 +1833,10 @@
     </row>
     <row r="31" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
@@ -1836,10 +1860,10 @@
     </row>
     <row r="32" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
@@ -1847,13 +1871,13 @@
         <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1863,10 +1887,10 @@
     </row>
     <row r="33" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
@@ -1874,13 +1898,13 @@
         <v>37</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1890,10 +1914,10 @@
     </row>
     <row r="34" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
@@ -1901,13 +1925,13 @@
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1917,10 +1941,10 @@
     </row>
     <row r="35" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
@@ -1928,13 +1952,13 @@
         <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1944,10 +1968,10 @@
     </row>
     <row r="36" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -1975,10 +1999,10 @@
     </row>
     <row r="37" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
@@ -2006,10 +2030,10 @@
     </row>
     <row r="38" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
@@ -2037,10 +2061,10 @@
     </row>
     <row r="39" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
@@ -2068,10 +2092,10 @@
     </row>
     <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
@@ -2094,14 +2118,14 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="10" t="s">
         <v>37</v>
       </c>
@@ -2122,10 +2146,10 @@
     </row>
     <row r="42" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
@@ -2149,10 +2173,10 @@
     </row>
     <row r="43" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
@@ -2176,10 +2200,10 @@
     </row>
     <row r="44" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
@@ -2187,13 +2211,13 @@
         <v>50</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2203,10 +2227,10 @@
     </row>
     <row r="45" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
@@ -2214,13 +2238,13 @@
         <v>37</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2230,10 +2254,10 @@
     </row>
     <row r="46" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
@@ -2241,13 +2265,13 @@
         <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2257,10 +2281,10 @@
     </row>
     <row r="47" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
@@ -2268,13 +2292,13 @@
         <v>34</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2284,15 +2308,15 @@
     </row>
     <row r="48" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
@@ -2337,8 +2361,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2346,16 +2370,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>128</v>
+      <c r="B1" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2382,9 +2406,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2392,34 +2416,34 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>99</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2446,9 +2470,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2457,118 +2481,118 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>132</v>
+      <c r="B1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2636,10 +2660,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2648,27 +2672,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>97</v>
+        <v>136</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2699,184 +2723,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="22" t="n">
+      <c r="A3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="22" t="n">
+      <c r="H3" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="22" t="n">
+      <c r="K3" s="24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
+      <c r="A4" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+      <c r="A5" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="C5" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="n">
+      <c r="A6" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="E6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="n">
+      <c r="A7" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="C8" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="G8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2905,9 +2929,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2916,175 +2940,175 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>132</v>
+      <c r="B1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="24"/>
+        <v>146</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3111,8 +3135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3120,25 +3144,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>132</v>
+      <c r="B1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -3193,10 +3217,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,12 +3228,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
@@ -3217,7 +3241,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3225,12 +3249,12 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3257,11 +3281,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3269,17 +3293,17 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>99</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3287,11 +3311,11 @@
         <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3300,11 +3324,11 @@
         <v>28</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -3332,11 +3356,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3344,17 +3368,17 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>105</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3362,13 +3386,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3379,13 +3403,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -3396,13 +3420,13 @@
         <v>33</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -3413,13 +3437,13 @@
         <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -3430,13 +3454,13 @@
         <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -3447,13 +3471,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -3483,9 +3507,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3493,11 +3517,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>111</v>
+      <c r="B1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3505,10 +3529,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3536,9 +3560,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3547,20 +3571,20 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>115</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,18 +3592,18 @@
         <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="16" t="n">
+        <v>118</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="18" t="n">
+      <c r="F2" s="20" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3601,14 +3625,14 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3616,14 +3640,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>120</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,51 +3655,51 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3702,8 +3726,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3711,16 +3735,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>128</v>
+      <c r="B1" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +3771,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3756,8 +3780,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>118</v>
+      <c r="B1" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,7 +3789,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3800,22 +3824,22 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
+      <c r="B1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -918,7 +918,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1526,10 +1526,10 @@
         <v>53</v>
       </c>
       <c r="I20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>53</v>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -918,7 +918,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1526,10 +1526,10 @@
         <v>53</v>
       </c>
       <c r="I20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>53</v>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="157">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t xml:space="preserve">Display by Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene_fk</t>
   </si>
   <si>
     <t xml:space="preserve">POP Seasonal Programs</t>
@@ -418,19 +415,25 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCC Cooler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCC Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Comparable Type</t>
@@ -522,7 +525,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -558,12 +561,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -712,12 +709,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -770,11 +767,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,15 +779,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,23 +795,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -917,19 +910,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="77.1255060728745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="77.7692307692308"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1491,10 +1484,10 @@
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="10" t="s">
         <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1504,44 +1497,40 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+    <row r="20" s="13" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="J20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>52</v>
@@ -1552,7 +1541,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
@@ -1569,18 +1558,18 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1601,10 +1590,10 @@
     </row>
     <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -1632,10 +1621,10 @@
     </row>
     <row r="24" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -1661,16 +1650,16 @@
     </row>
     <row r="25" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="10"/>
       <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>16</v>
@@ -1694,15 +1683,15 @@
     </row>
     <row r="26" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>25</v>
@@ -1711,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1725,10 +1714,10 @@
     </row>
     <row r="27" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
@@ -1752,10 +1741,10 @@
     </row>
     <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
@@ -1779,10 +1768,10 @@
     </row>
     <row r="29" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -1806,10 +1795,10 @@
     </row>
     <row r="30" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
@@ -1833,10 +1822,10 @@
     </row>
     <row r="31" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
@@ -1860,10 +1849,10 @@
     </row>
     <row r="32" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
@@ -1871,13 +1860,13 @@
         <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1887,10 +1876,10 @@
     </row>
     <row r="33" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
@@ -1898,13 +1887,13 @@
         <v>37</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1914,10 +1903,10 @@
     </row>
     <row r="34" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
@@ -1925,13 +1914,13 @@
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1941,10 +1930,10 @@
     </row>
     <row r="35" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
@@ -1952,13 +1941,13 @@
         <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1968,10 +1957,10 @@
     </row>
     <row r="36" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -1999,10 +1988,10 @@
     </row>
     <row r="37" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
@@ -2030,10 +2019,10 @@
     </row>
     <row r="38" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
@@ -2061,10 +2050,10 @@
     </row>
     <row r="39" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
@@ -2092,10 +2081,10 @@
     </row>
     <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
@@ -2118,14 +2107,14 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="10" t="s">
         <v>37</v>
       </c>
@@ -2146,10 +2135,10 @@
     </row>
     <row r="42" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
@@ -2173,10 +2162,10 @@
     </row>
     <row r="43" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
@@ -2200,10 +2189,10 @@
     </row>
     <row r="44" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
@@ -2211,13 +2200,13 @@
         <v>50</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2227,10 +2216,10 @@
     </row>
     <row r="45" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
@@ -2238,13 +2227,13 @@
         <v>37</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2254,10 +2243,10 @@
     </row>
     <row r="46" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
@@ -2265,13 +2254,13 @@
         <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2281,10 +2270,10 @@
     </row>
     <row r="47" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
@@ -2292,13 +2281,13 @@
         <v>34</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2308,15 +2297,15 @@
     </row>
     <row r="48" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
@@ -2361,8 +2350,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2370,16 +2359,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>130</v>
+      <c r="B1" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2406,9 +2395,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2416,34 +2405,34 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2470,9 +2459,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2481,118 +2470,118 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>134</v>
+      <c r="D1" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2660,10 +2649,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2672,27 +2661,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2723,184 +2712,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="24" t="n">
+      <c r="A3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="24" t="n">
+      <c r="G3" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="24" t="n">
+      <c r="H3" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="24" t="n">
+      <c r="I3" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="24" t="n">
+      <c r="J3" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="24" t="n">
+      <c r="K3" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="C4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="F7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2929,9 +2918,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2940,175 +2929,175 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>134</v>
+      <c r="D1" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="26"/>
+        <v>147</v>
+      </c>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3135,8 +3124,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3144,25 +3133,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>134</v>
+      <c r="D1" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -3217,10 +3206,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,12 +3217,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
@@ -3241,7 +3230,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3249,12 +3238,12 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3281,11 +3270,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3293,17 +3282,17 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3311,11 +3300,11 @@
         <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3324,11 +3313,11 @@
         <v>28</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -3356,11 +3345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3368,17 +3357,17 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3386,13 +3375,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3403,13 +3392,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -3420,13 +3409,13 @@
         <v>33</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -3437,13 +3426,13 @@
         <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -3454,13 +3443,13 @@
         <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -3471,13 +3460,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -3507,9 +3496,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3517,11 +3506,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3529,10 +3518,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3560,9 +3549,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3571,20 +3560,20 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,18 +3581,18 @@
         <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="18" t="n">
+      <c r="E2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="n">
+      <c r="F2" s="19" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3626,13 +3615,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3640,14 +3629,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,13 +3644,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,37 +3658,37 @@
         <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3726,8 +3715,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3735,16 +3724,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>130</v>
+      <c r="B1" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3771,7 +3760,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3780,8 +3769,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>120</v>
+      <c r="B1" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,22 +3813,22 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Adjacency</t>
   </si>
   <si>
-    <t xml:space="preserve">Displays (Warm or Cold),Affiche (chaud ou froid)</t>
+    <t xml:space="preserve">Displays (Warm or Cold),Étalages (chaud ou froid)</t>
   </si>
   <si>
     <t xml:space="preserve">Session, Brand</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">Anchor</t>
   </si>
   <si>
-    <t xml:space="preserve">Warm/Main Shelf,Plateau chaud / principal</t>
+    <t xml:space="preserve">Warm/Main Shelf,îlot au chaud</t>
   </si>
   <si>
     <t xml:space="preserve">Leading Main Section on Right</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Leading Cooler on Left</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de refroidisseur / refroidisseurs à air ouvert</t>
+    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de chambre froide/frigo open deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Leading Cooler on Right</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Blocked Together</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de refroidisseur / refroidisseurs à air ouvert,Warm/Main Shelf,Plateau chaud / principal, Cold Room,Chambre froide</t>
+    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de chambre froide/frigo open deck.,Warm/Main Shelf,îlot au chaud, Cold Room,Chambre froide</t>
   </si>
   <si>
     <t xml:space="preserve">Innovation Distribution</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">Product Sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de refroidisseur / refroidisseurs à air ouvert, Warm/Main Shelf,Plateau chaud / principal ,Cold Room,Chambre froide</t>
+    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de chambre froide/frigo open deck., Warm/Main Shelf,îlot au chaud ,Cold Room,Chambre froide</t>
   </si>
   <si>
     <t xml:space="preserve">Segment</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Shelf Placement</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de refroidisseur / refroidisseurs à air ouvert,Cold Room,Chambre froide,Warm/Main Shelf,Plateau chaud / principal</t>
+    <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de chambre froide/frigo open deck.,Cold Room,Chambre froide,Warm/Main Shelf,îlot au chaud</t>
   </si>
   <si>
     <t xml:space="preserve">A Param 1</t>
@@ -910,19 +910,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="78.412955465587"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -2345,13 +2345,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
+      <selection pane="topLeft" activeCell="N40" activeCellId="1" sqref="E2:E48 N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2390,14 +2390,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E2:E48 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2454,14 +2454,14 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E2:E48 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2644,15 +2644,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="E2:E48 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2703,7 +2703,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA29" activeCellId="0" sqref="AA29"/>
+      <selection pane="topLeft" activeCell="AA29" activeCellId="1" sqref="E2:E48 AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2913,14 +2913,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="1" sqref="E2:E48 B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3119,13 +3119,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="E2:E48 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3194,7 +3194,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="E2:E48 Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3265,16 +3265,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E2:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3340,16 +3340,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="E2:E48 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3491,14 +3491,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E48 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3543,15 +3543,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3615,13 +3615,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="1" sqref="E2:E48 P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3710,13 +3710,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="E2:E48 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3755,12 +3755,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="E2:E48 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3800,7 +3800,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="1" sqref="E2:E48 J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,6 +25,8 @@
     <sheet name="Share of Shelf" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Purity" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Hierarchy" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Base Measurement" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Bay Count" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="159">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -95,7 +97,7 @@
     <t xml:space="preserve">template_fk</t>
   </si>
   <si>
-    <t xml:space="preserve">store_fk</t>
+    <t xml:space="preserve">store_id</t>
   </si>
   <si>
     <t xml:space="preserve">Molson Coors Cooler Exceptions</t>
@@ -515,6 +517,12 @@
   </si>
   <si>
     <t xml:space="preserve">POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum Col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_len_ign_stack</t>
   </si>
 </sst>
 </file>
@@ -830,15 +838,33 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -910,19 +936,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="78.412955465587"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="79.1619433198381"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2345,13 +2371,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N40" activeCellId="1" sqref="E2:E48 N40"/>
+      <selection pane="topLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2390,14 +2416,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E2:E48 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2454,14 +2480,14 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E2:E48 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2644,15 +2670,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="E2:E48 I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2703,7 +2729,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA29" activeCellId="1" sqref="E2:E48 AA29"/>
+      <selection pane="topLeft" activeCell="AA29" activeCellId="0" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2913,14 +2939,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="1" sqref="E2:E48 B21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3119,13 +3145,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="E2:E48 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3194,7 +3220,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="E2:E48 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3244,6 +3270,115 @@
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W20" activeCellId="0" sqref="W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6518218623482"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0445344129555"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3265,16 +3400,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E2:E48"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3340,16 +3475,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="E2:E48 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3491,14 +3626,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E48 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3543,15 +3678,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E48"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3615,13 +3750,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="1" sqref="E2:E48 P12"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3710,13 +3845,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="E2:E48 I16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3755,12 +3890,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="E2:E48 F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3800,7 +3935,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="1" sqref="E2:E48 J18"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="161">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -441,7 +441,16 @@
     <t xml:space="preserve">Comparable Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Must-Have SKUs</t>
+    <t xml:space="preserve">Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
   </si>
   <si>
     <t xml:space="preserve">Molson Coors </t>
@@ -511,9 +520,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
   </si>
   <si>
     <t xml:space="preserve">POSM</t>
@@ -533,7 +539,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -591,6 +597,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -717,12 +729,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,23 +815,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -838,33 +854,15 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -936,19 +934,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="79.1619433198381"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="79.8016194331984"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2376,8 +2374,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2421,9 +2419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2452,10 +2450,10 @@
         <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>69</v>
@@ -2485,9 +2483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2503,7 +2501,7 @@
         <v>104</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2563,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,7 +2577,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2591,7 @@
         <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,7 +2605,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2675,10 +2673,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2687,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>97</v>
@@ -2701,13 +2699,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2738,184 +2736,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="23" t="n">
+      <c r="A3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="23" t="n">
+      <c r="I3" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="23" t="n">
+      <c r="J3" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="23" t="n">
+      <c r="K3" s="24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
+      <c r="A5" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
+      <c r="A7" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="C7" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="C8" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2944,9 +2942,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2962,7 +2960,7 @@
         <v>104</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2976,9 +2974,9 @@
         <v>108</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="25"/>
+        <v>150</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
@@ -2988,10 +2986,10 @@
         <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3002,10 +3000,10 @@
         <v>107</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3016,10 +3014,10 @@
         <v>107</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3081,7 +3079,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3095,7 +3093,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3109,7 +3107,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3123,7 +3121,7 @@
         <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3150,8 +3148,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3166,7 +3164,7 @@
         <v>104</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,10 +3230,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,12 +3241,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
@@ -3256,7 +3254,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3264,7 +3262,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,9 +3294,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6518218623482"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,23 +3312,23 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>158</v>
+      <c r="B3" s="26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>158</v>
+      <c r="B4" s="26" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3351,14 +3349,14 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0445344129555"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,17 +3397,17 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3480,11 +3478,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3631,9 +3629,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3684,9 +3682,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3755,8 +3753,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3850,8 +3848,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3895,7 +3893,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3932,38 +3930,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>132</v>
       </c>
+      <c r="E1" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="B2" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>108</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Out of Stock</t>
   </si>
   <si>
-    <t xml:space="preserve">Pack Distribution vs Competitors </t>
+    <t xml:space="preserve">Pack Distribution vs Competitors</t>
   </si>
   <si>
     <t xml:space="preserve">Pack Distribution</t>
@@ -934,8 +934,8 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2366,10 +2366,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2379,7 +2379,7 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2395,6 +2395,7 @@
         <v>59</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3932,7 +3933,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -528,7 +528,7 @@
     <t xml:space="preserve">Sum Col</t>
   </si>
   <si>
-    <t xml:space="preserve">net_len_ign_stack</t>
+    <t xml:space="preserve">width_mm_advance</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -597,12 +597,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -729,12 +723,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,27 +809,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -934,19 +924,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="1" sqref="B4 A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="80.4453441295547"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2369,13 +2359,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B4 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2415,14 +2405,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2479,14 +2469,14 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2669,15 +2659,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="B4 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2728,7 +2718,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA29" activeCellId="0" sqref="AA29"/>
+      <selection pane="topLeft" activeCell="AA29" activeCellId="1" sqref="B4 AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2737,184 +2727,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="24" t="n">
+      <c r="B3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="24" t="n">
+      <c r="G3" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="24" t="n">
+      <c r="H3" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="24" t="n">
+      <c r="I3" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="24" t="n">
+      <c r="J3" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="24" t="n">
+      <c r="K3" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2938,14 +2928,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="1" sqref="B4 B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2977,7 +2967,7 @@
       <c r="D2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
@@ -3144,13 +3134,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="B4 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3219,7 +3209,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B4 Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3289,14 +3279,14 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W20" activeCellId="0" sqref="W20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3320,7 +3310,7 @@
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="0" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3328,7 +3318,7 @@
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="0" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3351,12 +3341,12 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3399,16 +3389,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="B4 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3474,16 +3464,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="B4 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3625,14 +3615,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B4 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3677,15 +3667,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B4 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3749,13 +3739,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="1" sqref="B4 P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3844,13 +3834,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="B4 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3889,12 +3879,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="B4 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3934,15 +3924,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="B4 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3964,7 +3954,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="10" t="s">

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">template_fk</t>
   </si>
   <si>
-    <t xml:space="preserve">store_id</t>
+    <t xml:space="preserve">store_fk</t>
   </si>
   <si>
     <t xml:space="preserve">Molson Coors Cooler Exceptions</t>
@@ -924,19 +924,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="1" sqref="B4 A27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="80.4453441295547"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="81.1943319838057"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2359,13 +2359,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B4 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2405,14 +2405,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2469,14 +2469,14 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2659,15 +2659,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="B4 I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2718,7 +2718,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA29" activeCellId="1" sqref="B4 AA29"/>
+      <selection pane="topLeft" activeCell="AA29" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2928,14 +2928,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="1" sqref="B4 B21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3134,13 +3134,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="B4 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3209,7 +3209,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B4 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3279,14 +3279,14 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3341,12 +3341,12 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3389,16 +3389,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="B4 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3464,16 +3464,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="B4 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3615,14 +3615,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B4 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3667,15 +3667,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B4 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3739,13 +3739,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="1" sqref="B4 P12"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3834,13 +3834,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="B4 I16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3879,12 +3879,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="B4 F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3924,15 +3924,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="B4 G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="161">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -924,19 +924,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 L1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="81.1943319838057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="81.9473684210526"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2356,36 +2356,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2405,14 +2416,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2469,14 +2480,14 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2659,15 +2670,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2718,7 +2729,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA29" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 AA29"/>
+      <selection pane="topLeft" activeCell="AA29" activeCellId="0" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2928,14 +2939,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B21"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3134,13 +3145,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3209,7 +3220,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3280,13 +3291,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3341,12 +3352,12 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3389,16 +3400,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3464,16 +3475,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3615,14 +3626,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3667,15 +3678,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3739,13 +3750,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 P12"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3834,13 +3845,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 I16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3879,12 +3890,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -3924,15 +3935,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="11" sqref="H12:H18 H21:H22 H24 H28 H40 H48 J2:J5 J18:J21 J23:J24 J48 L25 G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,7 @@
     <sheet name="Bay Count" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="160">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -82,7 +83,7 @@
     <t xml:space="preserve">Molson Coors Cooler Violations</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability</t>
+    <t xml:space="preserve">Negative Distribution</t>
   </si>
   <si>
     <t xml:space="preserve">MCC Branded Fridge,Réfrigérateur MCC</t>
@@ -103,9 +104,6 @@
     <t xml:space="preserve">Molson Coors Cooler Exceptions</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative Distribution</t>
-  </si>
-  <si>
     <t xml:space="preserve">assortment</t>
   </si>
   <si>
@@ -220,6 +218,9 @@
     <t xml:space="preserve">Molson Coors Cooler Compliance</t>
   </si>
   <si>
+    <t xml:space="preserve">Purity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adjacencies</t>
   </si>
   <si>
@@ -254,9 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">Molson Coors Cooler Purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purity</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Total Facings</t>
@@ -384,61 +382,58 @@
     <t xml:space="preserve">Numerator Exclude Value 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude Param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pk size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparable Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCC Cooler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude Param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pk size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCC Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparable Type</t>
   </si>
   <si>
     <t xml:space="preserve">Param 2</t>
@@ -508,6 +503,9 @@
   </si>
   <si>
     <t xml:space="preserve">Moosehead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment</t>
   </si>
   <si>
     <t xml:space="preserve">Key</t>
@@ -539,7 +537,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -577,6 +575,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -585,14 +589,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -723,12 +727,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,6 +769,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,19 +797,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -809,23 +821,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,16 +855,28 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -917,26 +941,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="81.9473684210526"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="82.6963562753036"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -983,12 +1011,12 @@
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1015,11 +1043,11 @@
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1029,10 +1057,10 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -1041,29 +1069,29 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -1072,29 +1100,29 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="5" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -1103,29 +1131,29 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -1134,29 +1162,29 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="7" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
@@ -1165,29 +1193,29 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="8" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
@@ -1196,29 +1224,29 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+    <row r="9" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
@@ -1227,29 +1255,29 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+    <row r="10" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
@@ -1258,29 +1286,29 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
+    <row r="11" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
@@ -1289,20 +1317,20 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+    <row r="12" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -1316,20 +1344,20 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="13" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
@@ -1343,20 +1371,20 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="14" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
@@ -1370,20 +1398,20 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+    <row r="15" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
@@ -1397,20 +1425,20 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="16" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
+      <c r="B16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
@@ -1424,20 +1452,20 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10" t="s">
-        <v>34</v>
+    <row r="17" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
@@ -1451,29 +1479,29 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+    <row r="18" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>18</v>
@@ -1482,27 +1510,27 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+    <row r="19" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>53</v>
+      <c r="H19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>18</v>
@@ -1511,17 +1539,17 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" s="13" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="14" customFormat="true" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>15</v>
@@ -1530,10 +1558,10 @@
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>18</v>
@@ -1542,20 +1570,20 @@
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+    <row r="21" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
@@ -1564,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>18</v>
@@ -1572,26 +1600,26 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>18</v>
@@ -1602,29 +1630,29 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+    <row r="23" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
-        <v>50</v>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>18</v>
@@ -1633,16 +1661,16 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+    <row r="24" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1653,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>18</v>
@@ -1662,16 +1690,16 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+    <row r="25" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1679,45 +1707,45 @@
         <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+    <row r="26" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>69</v>
@@ -1727,22 +1755,22 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10" t="s">
+      <c r="B27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>17</v>
@@ -1753,23 +1781,23 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+    <row r="28" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
-        <v>50</v>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>18</v>
@@ -1780,23 +1808,23 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="10" t="s">
+    <row r="29" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10" t="s">
-        <v>37</v>
+      <c r="B29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>17</v>
@@ -1807,23 +1835,23 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10" t="s">
-        <v>31</v>
+    <row r="30" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>17</v>
@@ -1834,23 +1862,23 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10" t="s">
-        <v>34</v>
+    <row r="31" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>17</v>
@@ -1861,23 +1889,23 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12" t="s">
-        <v>50</v>
+    <row r="32" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>69</v>
@@ -1888,23 +1916,23 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10" t="s">
-        <v>37</v>
+    <row r="33" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>69</v>
@@ -1915,23 +1943,23 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="10" t="s">
-        <v>31</v>
+    <row r="34" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>69</v>
@@ -1942,23 +1970,23 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10" t="s">
-        <v>34</v>
+    <row r="35" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>69</v>
@@ -1969,29 +1997,29 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+    <row r="36" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>17</v>
@@ -2000,29 +2028,29 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    <row r="37" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10" t="s">
+      <c r="B37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>17</v>
@@ -2031,29 +2059,29 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10" t="s">
+    <row r="38" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>17</v>
@@ -2062,29 +2090,29 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10" t="s">
+    <row r="39" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>17</v>
@@ -2093,23 +2121,23 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12" t="s">
-        <v>50</v>
+    <row r="40" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>18</v>
@@ -2120,23 +2148,23 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="10" t="s">
-        <v>37</v>
+    <row r="41" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>17</v>
@@ -2147,23 +2175,23 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="10" t="s">
-        <v>31</v>
+    <row r="42" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
@@ -2174,23 +2202,23 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10" t="s">
-        <v>34</v>
+    <row r="43" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
@@ -2201,23 +2229,23 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12" t="s">
-        <v>50</v>
+    <row r="44" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>69</v>
@@ -2228,23 +2256,23 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="10" t="s">
-        <v>37</v>
+    <row r="45" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>69</v>
@@ -2255,23 +2283,23 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="10" t="s">
-        <v>31</v>
+    <row r="46" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>69</v>
@@ -2282,23 +2310,23 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="10" t="s">
-        <v>34</v>
+    <row r="47" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>69</v>
@@ -2309,17 +2337,17 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+    <row r="48" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
@@ -2331,7 +2359,7 @@
         <v>18</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>18</v>
@@ -2341,6 +2369,16 @@
       <c r="M48" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L48">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Molson Coors Cooler Compliance"/>
+        <filter val="Molson Coors Cooler Violations"/>
+        <filter val="Molson Coors Cooler Exceptions"/>
+        <filter val="Molson Coors Cooler Purity"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2348,6 +2386,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2358,14 +2397,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2373,27 +2412,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>131</v>
+      <c r="D1" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2421,9 +2460,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2431,33 +2470,33 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2485,9 +2524,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2496,118 +2535,118 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>138</v>
+      <c r="D1" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2616,40 +2655,40 @@
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>#ref!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>#ref!="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>#ref!="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>#ref!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$T4="Ready"</formula>
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>'Share of Facings'!$T4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>$T4="Removed"</formula>
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>'Share of Facings'!$T4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>$T4="Done"</formula>
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>'Share of Facings'!$T4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>$T4="Built"</formula>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>'Share of Facings'!$T4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>$T4="Templated"</formula>
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>'Share of Facings'!$T4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>$T4&lt;&gt;""</formula>
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>'Share of Facings'!$T4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2675,10 +2714,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2687,27 +2726,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2738,184 +2777,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23" t="n">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="B5" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="B6" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="B7" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="23" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" s="23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="B8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D8" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2944,9 +2983,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2955,175 +2994,175 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>138</v>
+      <c r="D1" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="D11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3142,64 +3181,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>138</v>
+      <c r="D1" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$T2="Ready"</formula>
+      <formula>Purity!$T2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$T2="Removed"</formula>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Purity!$T2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$T2="Done"</formula>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Purity!$T2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$T2="Built"</formula>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Purity!$T2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$T2="Templated"</formula>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Purity!$T2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$T2&lt;&gt;""</formula>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Purity!$T2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3232,31 +3283,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3264,7 +3315,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,8 +3347,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3306,31 +3357,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3408,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3367,18 +3418,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>44</v>
+      <c r="A2" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3405,11 +3456,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3417,44 +3468,44 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="16" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3475,16 +3526,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3492,116 +3543,116 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="16" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>110</v>
+      <c r="D3" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>110</v>
+      <c r="D5" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>110</v>
+      <c r="D7" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -3631,9 +3682,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3641,24 +3692,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
+    </row>
+    <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3684,9 +3725,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3695,39 +3736,39 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="16" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="C2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="n">
+      <c r="F2" s="21" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3747,16 +3788,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3764,66 +3805,54 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="16" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3850,8 +3879,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3859,8 +3888,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>131</v>
+      <c r="B1" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,33 +3916,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>129</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3940,10 +3988,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3951,34 +3999,34 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="162">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -224,9 +224,6 @@
     <t xml:space="preserve">Adjacencies</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Block Adjacency</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dynamic Out of Stock</t>
   </si>
   <si>
@@ -332,120 +329,130 @@
     <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de chambre froide/frigo open deck.,Cold Room,Chambre froide,Warm/Main Shelf,îlot au chaud</t>
   </si>
   <si>
+    <t xml:space="preserve">Comparable Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flankers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competitive Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left, right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disruptors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf_Presence_Minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molson Coors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Exclude Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Exclude Value 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Param 1</t>
   </si>
   <si>
     <t xml:space="preserve">A Value 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude Param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pk size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCC Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Param 2</t>
   </si>
   <si>
     <t xml:space="preserve">A Value 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Brands {LIST A}
-Facings &gt; 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brands {LIST B}
-Facings &gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf_Presence_Minimum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molson Coors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Exclude Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Exclude Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude Param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pk size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparable Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCC Cooler</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
   </si>
   <si>
     <t xml:space="preserve">Molson Coors </t>
@@ -503,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">Moosehead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment</t>
   </si>
   <si>
     <t xml:space="preserve">Key</t>
@@ -732,7 +736,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,6 +811,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -947,13 +955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="E4 B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1069,7 +1077,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1108,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1139,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1162,7 +1170,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1193,7 +1201,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
@@ -1224,7 +1232,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1255,7 +1263,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
@@ -1286,7 +1294,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -1317,7 +1325,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
@@ -1344,7 +1352,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>41</v>
       </c>
@@ -1371,7 +1379,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
@@ -1398,7 +1406,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -1425,7 +1433,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1460,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
@@ -1479,7 +1487,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -1510,7 +1518,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>50</v>
       </c>
@@ -1539,7 +1547,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" s="14" customFormat="true" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="14" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
@@ -1570,7 +1578,7 @@
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -1630,12 +1638,12 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -1661,12 +1669,12 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1690,18 +1698,18 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>16</v>
@@ -1723,17 +1731,17 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>24</v>
@@ -1742,13 +1750,13 @@
         <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1756,7 +1764,7 @@
     </row>
     <row r="27" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>58</v>
@@ -1781,12 +1789,12 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -1808,12 +1816,12 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
@@ -1835,12 +1843,12 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -1862,12 +1870,12 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
@@ -1889,12 +1897,12 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -1902,13 +1910,13 @@
         <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1916,12 +1924,12 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -1929,13 +1937,13 @@
         <v>36</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1943,12 +1951,12 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -1956,13 +1964,13 @@
         <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1970,12 +1978,12 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
@@ -1983,13 +1991,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1997,12 +2005,12 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -2028,12 +2036,12 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
@@ -2059,12 +2067,12 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
@@ -2090,12 +2098,12 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
@@ -2121,12 +2129,12 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
@@ -2148,12 +2156,12 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="17"/>
@@ -2175,12 +2183,12 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
@@ -2202,12 +2210,12 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
@@ -2229,12 +2237,12 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
@@ -2242,13 +2250,13 @@
         <v>49</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2256,12 +2264,12 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
@@ -2269,13 +2277,13 @@
         <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2283,12 +2291,12 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
@@ -2296,13 +2304,13 @@
         <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2310,12 +2318,12 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="20.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
@@ -2323,13 +2331,13 @@
         <v>33</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2337,17 +2345,17 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
@@ -2369,16 +2377,7 @@
       <c r="M48" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L48">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Molson Coors Cooler Compliance"/>
-        <filter val="Molson Coors Cooler Violations"/>
-        <filter val="Molson Coors Cooler Exceptions"/>
-        <filter val="Molson Coors Cooler Purity"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2398,7 +2397,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="E4 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2413,24 +2412,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>59</v>
@@ -2455,7 +2454,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2471,33 +2470,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2518,7 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2536,117 +2535,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2709,7 +2708,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="E4 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2726,27 +2725,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +2767,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA29" activeCellId="0" sqref="AA29"/>
+      <selection pane="topLeft" activeCell="AA29" activeCellId="1" sqref="E4 AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2777,184 +2776,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="A1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="25" t="n">
+      <c r="A3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="n">
+      <c r="I3" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="25" t="n">
+      <c r="K3" s="26" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="n">
+      <c r="A5" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="n">
+      <c r="A6" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="n">
+      <c r="A7" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="n">
+      <c r="A8" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2978,7 +2977,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="1" sqref="E4 I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2995,174 +2994,174 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="27"/>
+        <v>151</v>
+      </c>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3183,8 +3182,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W45" activeCellId="1" sqref="E4 W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3201,24 +3200,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -3229,7 +3228,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3270,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="E4 Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3283,10 +3282,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,12 +3293,12 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>25</v>
@@ -3315,12 +3314,12 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3341,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="E4 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3357,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3364,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +3372,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,7 +3380,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3402,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3448,37 +3447,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3486,26 +3484,47 @@
         <v>21</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3526,7 +3545,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="E4 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3544,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3561,13 +3580,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3578,13 +3597,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -3595,13 +3614,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -3612,13 +3631,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -3629,13 +3648,13 @@
         <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -3646,13 +3665,13 @@
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -3677,7 +3696,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E4 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3693,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3719,7 +3738,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="E4 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3737,19 +3756,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,18 +3776,18 @@
         <v>47</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="20" t="n">
+        <v>118</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="n">
+      <c r="F2" s="22" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3791,7 +3810,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="E4 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3806,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,13 +3839,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,13 +3853,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,11 +3867,11 @@
         <v>54</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3893,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E4 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3889,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,13 +3938,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="E4 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.080971659919"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3934,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,18 +3970,18 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="20" t="s">
         <v>107</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +4003,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="E4 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4000,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>130</v>
@@ -4014,13 +4034,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>132</v>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Adjacency" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Anchor" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Availability" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Blocked Together" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Blocking" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Distribution" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Max Block Adjacency" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Negative Distribution" sheetId="8" state="visible" r:id="rId9"/>
@@ -29,8 +29,9 @@
     <sheet name="Bay Count" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="164">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -185,10 +186,10 @@
     <t xml:space="preserve">Cooler Door Count</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand Blocking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocked Together</t>
+    <t xml:space="preserve">Brand Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocking</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler Doors/Open Air Coolers,Portes de chambre froide/frigo open deck.,Warm/Main Shelf,îlot au chaud, Cold Room,Chambre froide</t>
@@ -383,67 +384,73 @@
     <t xml:space="preserve">Numerator Exclude Value 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Num Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_sub_packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCC Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Param 1</t>
   </si>
   <si>
     <t xml:space="preserve">A Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude Param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pk size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCC Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
   </si>
   <si>
     <t xml:space="preserve">A Param 2</t>
@@ -541,7 +548,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -577,12 +584,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -731,12 +732,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -773,10 +774,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -801,19 +798,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,36 +818,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -864,27 +853,13 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -961,18 +936,18 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="E4 B27"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="83.3400809716599"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.5627530364373"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1019,12 +994,12 @@
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1054,8 +1029,8 @@
         <v>13</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1078,15 +1053,15 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1109,15 +1084,15 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1140,15 +1115,15 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1171,15 +1146,15 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1202,15 +1177,15 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1233,15 +1208,15 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1264,15 +1239,15 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1295,15 +1270,15 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1326,15 +1301,15 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1353,15 +1328,15 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1380,15 +1355,15 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1407,15 +1382,15 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1434,15 +1409,15 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1461,15 +1436,15 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1487,16 +1462,16 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1519,25 +1494,25 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1547,7 +1522,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" s="14" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="13" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
@@ -1555,8 +1530,8 @@
         <v>51</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -1579,15 +1554,15 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1612,15 +1587,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="11" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1639,15 +1614,15 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1670,15 +1645,15 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,15 +1674,15 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1" t="s">
         <v>64</v>
       </c>
@@ -1732,15 +1707,15 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10" t="s">
         <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1763,15 +1738,15 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1790,15 +1765,15 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1817,15 +1792,15 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1844,15 +1819,15 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1871,15 +1846,15 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1898,15 +1873,15 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1925,15 +1900,15 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1952,15 +1927,15 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1979,15 +1954,15 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2006,15 +1981,15 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2037,15 +2012,15 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2068,15 +2043,15 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2099,15 +2074,15 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2130,15 +2105,15 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2157,15 +2132,15 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="11" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -2184,15 +2159,15 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2211,15 +2186,15 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -2238,15 +2213,15 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -2265,15 +2240,15 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2292,15 +2267,15 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="11" t="s">
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -2319,15 +2294,15 @@
       <c r="M46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="11" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -2346,15 +2321,15 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -2377,7 +2352,7 @@
       <c r="M48" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L48"/>
+  <autoFilter ref="A1:E48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2397,13 +2372,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="E4 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2411,27 +2386,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2454,14 +2429,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2469,33 +2444,33 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>135</v>
       </c>
+      <c r="D1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2518,14 +2493,14 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2534,118 +2509,118 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>139</v>
+      <c r="D1" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2708,15 +2683,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="E4 I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2725,27 +2700,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>114</v>
+        <v>143</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>142</v>
+      <c r="B2" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2742,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA29" activeCellId="1" sqref="E4 AA29"/>
+      <selection pane="topLeft" activeCell="AA29" activeCellId="0" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2776,184 +2751,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="A1" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="26" t="n">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="n">
+      <c r="E3" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="26" t="n">
+      <c r="F3" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="n">
+      <c r="G3" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="26" t="n">
+      <c r="H3" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="26" t="n">
+      <c r="I3" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="26" t="n">
+      <c r="J3" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="26" t="n">
+      <c r="K3" s="24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="B4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="C5" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="n">
+      <c r="A6" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="E6" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="n">
+      <c r="A7" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="C8" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="G8" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2977,14 +2952,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="1" sqref="E4 I4"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2993,175 +2968,175 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>139</v>
+      <c r="D1" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="28"/>
+      <c r="D2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>151</v>
+      <c r="C3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>151</v>
+      <c r="C5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3183,15 +3158,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W45" activeCellId="1" sqref="E4 W45"/>
+      <selection pane="topLeft" activeCell="W45" activeCellId="0" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3199,35 +3174,35 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3270,7 +3245,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="E4 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3282,10 +3257,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,12 +3268,12 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>25</v>
@@ -3314,7 +3289,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,13 +3316,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="E4 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3356,31 +3331,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3402,12 +3377,12 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3417,17 +3392,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3449,16 +3424,16 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3466,27 +3441,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="0" t="s">
         <v>100</v>
       </c>
@@ -3495,13 +3470,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="0" t="s">
         <v>100</v>
       </c>
@@ -3510,7 +3485,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -3545,16 +3520,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="E4 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3562,30 +3537,30 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -3593,16 +3568,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -3610,16 +3585,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -3627,16 +3602,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -3644,16 +3619,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -3661,16 +3636,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -3696,14 +3671,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E4 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3711,10 +3686,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3737,57 +3712,57 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="E4 E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="n">
+      <c r="F2" s="20" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3810,13 +3785,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="E4 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3824,53 +3799,53 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3893,13 +3868,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E4 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3907,7 +3882,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3938,13 +3913,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="E4 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.080971659919"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3953,34 +3928,34 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4003,15 +3978,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="E4 G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4019,33 +3994,33 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>133</v>
       </c>
     </row>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,9 +29,10 @@
     <sheet name="Bay Count" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="161">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -453,22 +454,13 @@
     <t xml:space="preserve">A Value 1</t>
   </si>
   <si>
-    <t xml:space="preserve">A Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Value 2</t>
+    <t xml:space="preserve">Iterative</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
     <t xml:space="preserve">Molson Coors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterative</t>
   </si>
   <si>
     <t xml:space="preserve">den_col</t>
@@ -941,13 +933,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="84.0890688259109"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2352,7 +2344,7 @@
       <c r="M48" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E48"/>
+  <autoFilter ref="A1:L48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2377,8 +2369,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2426,21 +2418,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2453,24 +2445,18 @@
       <c r="D1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2498,9 +2484,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2516,7 +2502,7 @@
         <v>105</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,7 +2564,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2578,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2592,7 @@
         <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2606,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2688,9 +2674,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2700,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>134</v>
@@ -2714,13 +2700,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2752,10 +2738,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2782,7 +2768,7 @@
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="24" t="n">
         <v>1</v>
@@ -2820,10 +2806,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2839,13 +2825,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -2860,16 +2846,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -2883,19 +2869,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -2908,22 +2894,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -2957,9 +2943,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2975,7 +2961,7 @@
         <v>105</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2989,7 +2975,7 @@
         <v>108</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" s="17"/>
     </row>
@@ -3001,10 +2987,10 @@
         <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3015,10 +3001,10 @@
         <v>107</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3029,10 +3015,10 @@
         <v>107</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3094,7 +3080,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3108,7 +3094,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3122,7 +3108,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3136,7 +3122,7 @@
         <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3149,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3257,10 +3243,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,12 +3254,12 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>25</v>
@@ -3289,7 +3275,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,8 +3307,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3331,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3325,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,7 +3333,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,7 +3341,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3368,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3430,10 +3416,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3525,11 +3511,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3676,9 +3662,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3712,16 +3698,16 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3790,8 +3776,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3873,8 +3859,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3918,8 +3904,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3983,10 +3969,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -29,10 +29,11 @@
     <sheet name="Bay Count" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -448,25 +449,25 @@
     <t xml:space="preserve">SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">Iterative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molson Coors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">den_col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Question </t>
+  </si>
+  <si>
     <t xml:space="preserve">A Param 1</t>
   </si>
   <si>
     <t xml:space="preserve">A Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molson Coors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">den_col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Question </t>
   </si>
   <si>
     <t xml:space="preserve">Are MCC Brands placed at Eye Level on shelf?</t>
@@ -933,13 +934,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="84.8380566801619"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2344,7 +2345,7 @@
       <c r="M48" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L48"/>
+  <autoFilter ref="A1:E48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2369,8 +2370,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2421,12 +2422,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -2437,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,10 +2452,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>68</v>
@@ -2484,9 +2485,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2502,7 +2503,7 @@
         <v>105</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2565,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,7 +2579,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2593,7 @@
         <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2607,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2674,9 +2675,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2686,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2703,7 +2704,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>142</v>
@@ -2943,9 +2944,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2961,7 +2962,7 @@
         <v>105</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3080,7 +3081,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3094,7 +3095,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3108,7 +3109,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3122,7 +3123,7 @@
         <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3149,10 +3150,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3307,7 +3308,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -3368,7 +3369,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3416,7 +3417,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
@@ -3511,11 +3512,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3662,9 +3663,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3705,9 +3706,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3776,8 +3777,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3859,8 +3860,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3904,8 +3905,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3969,10 +3970,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
     <sheet name="Share of Shelf" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Purity" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Hierarchy" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Base Measurement" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Linear Measurement" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="Bay Count" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
@@ -34,6 +34,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="160">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -164,7 +166,7 @@
     <t xml:space="preserve">Warm Base Measurement</t>
   </si>
   <si>
-    <t xml:space="preserve">Base Measurement</t>
+    <t xml:space="preserve">Linear Measurement</t>
   </si>
   <si>
     <t xml:space="preserve">Session</t>
@@ -347,6 +349,9 @@
     <t xml:space="preserve">Flankers</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Competitive Brands</t>
   </si>
   <si>
@@ -413,7 +418,10 @@
     <t xml:space="preserve">Scored</t>
   </si>
   <si>
-    <t xml:space="preserve">Metric</t>
+    <t xml:space="preserve">Result Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score Metric</t>
   </si>
   <si>
     <t xml:space="preserve">Innovations</t>
@@ -425,15 +433,18 @@
     <t xml:space="preserve">Displays</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
-    <t xml:space="preserve">POPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
     <t xml:space="preserve">MCC Cooler</t>
   </si>
   <si>
@@ -452,9 +463,6 @@
     <t xml:space="preserve">Iterative</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molson Coors </t>
   </si>
   <si>
@@ -464,16 +472,10 @@
     <t xml:space="preserve">Business Question </t>
   </si>
   <si>
-    <t xml:space="preserve">A Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Value 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Are MCC Brands placed at Eye Level on shelf?</t>
   </si>
   <si>
-    <t xml:space="preserve">Molson coors </t>
+    <t xml:space="preserve">Eye</t>
   </si>
   <si>
     <t xml:space="preserve">When there are
@@ -489,9 +491,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye</t>
   </si>
   <si>
     <t xml:space="preserve">Middle</t>
@@ -928,19 +927,19 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="86.336032388664"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2313,7 +2312,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
         <v>92</v>
       </c>
@@ -2370,8 +2369,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2380,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>95</v>
@@ -2394,10 +2393,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>59</v>
@@ -2421,13 +2420,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -2438,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,10 +2451,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>68</v>
@@ -2485,9 +2484,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2497,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2510,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -2523,10 +2522,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -2535,10 +2534,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2547,10 +2546,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2559,13 +2558,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,13 +2572,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,13 +2586,13 @@
         <v>77</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,13 +2600,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2667,19 +2666,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2687,13 +2687,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2704,9 +2707,12 @@
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2810,7 +2816,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2829,10 +2835,10 @@
         <v>146</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -2850,13 +2856,13 @@
         <v>146</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>149</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -2873,16 +2879,16 @@
         <v>146</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>149</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -2898,19 +2904,19 @@
         <v>146</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -2944,9 +2950,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2956,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2970,13 +2976,13 @@
         <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="17"/>
     </row>
@@ -2985,13 +2991,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2999,13 +3005,13 @@
         <v>82</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3013,13 +3019,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3027,10 +3033,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -3039,10 +3045,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -3051,10 +3057,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="10"/>
     </row>
@@ -3063,10 +3069,10 @@
         <v>87</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="10"/>
     </row>
@@ -3075,13 +3081,13 @@
         <v>88</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3089,13 +3095,13 @@
         <v>89</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3103,13 +3109,13 @@
         <v>90</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3117,13 +3123,13 @@
         <v>91</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3150,10 +3156,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3162,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>97</v>
@@ -3176,10 +3182,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -3190,7 +3196,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3244,10 +3250,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,12 +3261,12 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>25</v>
@@ -3268,7 +3274,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3276,7 +3282,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,13 +3308,13 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -3318,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,7 +3332,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3340,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3348,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3375,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3412,12 +3418,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
@@ -3448,12 +3454,14 @@
       <c r="B2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3461,14 +3469,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,13 +3489,13 @@
         <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3512,11 +3522,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3525,16 +3535,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3542,13 +3552,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3559,13 +3569,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -3576,13 +3586,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -3593,13 +3603,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -3610,13 +3620,13 @@
         <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -3627,13 +3637,13 @@
         <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -3663,9 +3673,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3674,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3706,9 +3716,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3718,19 +3728,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,16 +3748,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" s="20" t="n">
         <v>0.75</v>
@@ -3769,17 +3779,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1174089068826"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,13 +3800,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,13 +3817,16 @@
         <v>50</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,13 +3834,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,11 +3851,14 @@
         <v>54</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3860,8 +3885,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3905,8 +3930,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3916,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,7 +3957,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,10 +3965,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3970,10 +3995,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3982,16 +4007,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,16 +4024,16 @@
         <v>60</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
+++ b/Projects/MOLSONCOORSCA/Data/KPI Template v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,13 +29,14 @@
     <sheet name="Bay Count" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIS!$A$1:$L$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIS!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="161">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -362,6 +363,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left, right, up, down</t>
   </si>
   <si>
     <t xml:space="preserve">Param 1</t>
@@ -844,14 +848,112 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="00FFFFFF"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+      <protection locked="true" hidden="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="00FFFFFF"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+      <protection locked="true" hidden="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="00FFFFFF"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+      <protection locked="true" hidden="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -933,13 +1035,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="86.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="87.0890688259109"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2344,7 +2446,7 @@
       <c r="M48" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E48"/>
+  <autoFilter ref="A1:L48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2369,8 +2471,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2379,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>95</v>
@@ -2393,10 +2495,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>59</v>
@@ -2426,7 +2528,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -2437,13 +2539,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,10 +2553,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>68</v>
@@ -2484,9 +2586,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2496,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,10 +2612,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -2522,10 +2624,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -2534,10 +2636,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2546,10 +2648,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2558,13 +2660,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,13 +2674,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,13 +2688,13 @@
         <v>77</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,13 +2702,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2618,36 +2720,36 @@
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>#ref!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>'Share of Facings'!$T4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>'Share of Facings'!$T4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>'Share of Facings'!$T4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>'Share of Facings'!$T4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>'Share of Facings'!$T4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>'Share of Facings'!$T4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2674,11 +2776,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2687,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>93</v>
@@ -2704,16 +2806,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2745,10 +2847,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2775,7 +2877,7 @@
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="24" t="n">
         <v>1</v>
@@ -2813,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2832,13 +2934,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -2853,16 +2955,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -2876,19 +2978,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -2901,22 +3003,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -2950,9 +3052,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -2962,13 +3064,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2976,13 +3078,13 @@
         <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" s="17"/>
     </row>
@@ -2991,13 +3093,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3005,13 +3107,13 @@
         <v>82</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3019,13 +3121,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3033,10 +3135,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -3045,10 +3147,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -3057,10 +3159,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="10"/>
     </row>
@@ -3069,10 +3171,10 @@
         <v>87</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="10"/>
     </row>
@@ -3081,13 +3183,13 @@
         <v>88</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3095,13 +3197,13 @@
         <v>89</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3109,13 +3211,13 @@
         <v>90</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3123,13 +3225,13 @@
         <v>91</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3156,10 +3258,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3168,10 +3270,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>97</v>
@@ -3182,10 +3284,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -3196,7 +3298,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3207,16 +3309,16 @@
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>Purity!$T2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>Purity!$T2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>Purity!$T2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>Purity!$T2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>Purity!$T2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3250,10 +3352,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,12 +3363,12 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>25</v>
@@ -3274,7 +3376,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -3282,7 +3384,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,13 +3410,13 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -3324,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,7 +3434,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,7 +3442,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,7 +3450,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3477,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3417,13 +3519,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
@@ -3495,7 +3597,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3522,11 +3624,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3535,16 +3637,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3552,13 +3654,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3569,13 +3671,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -3586,13 +3688,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -3603,13 +3705,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -3620,13 +3722,13 @@
         <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -3637,13 +3739,13 @@
         <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -3673,9 +3775,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3684,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3716,9 +3818,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -3728,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,16 +3850,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" s="20" t="n">
         <v>0.75</v>
@@ -3787,11 +3889,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1174089068826"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3800,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,16 +3919,16 @@
         <v>50</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,16 +3936,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,14 +3953,14 @@
         <v>54</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3885,8 +3987,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3930,8 +4032,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -3941,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,7 +4059,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,10 +4067,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3995,10 +4097,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4007,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,16 +4126,16 @@
         <v>60</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
